--- a/natmiOut/OldD7/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H2">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I2">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J2">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0419603902766</v>
+        <v>10.16187433333333</v>
       </c>
       <c r="N2">
-        <v>10.0419603902766</v>
+        <v>30.485623</v>
       </c>
       <c r="O2">
-        <v>0.743008605394563</v>
+        <v>0.6867885401361519</v>
       </c>
       <c r="P2">
-        <v>0.743008605394563</v>
+        <v>0.686788540136152</v>
       </c>
       <c r="Q2">
-        <v>864.8550384072256</v>
+        <v>948.3644893674202</v>
       </c>
       <c r="R2">
-        <v>864.8550384072256</v>
+        <v>8535.280404306783</v>
       </c>
       <c r="S2">
-        <v>0.167884230498739</v>
+        <v>0.15988187840626</v>
       </c>
       <c r="T2">
-        <v>0.167884230498739</v>
+        <v>0.1598818784062601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H3">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I3">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J3">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.493523421505696</v>
+        <v>0.5923493333333333</v>
       </c>
       <c r="N3">
-        <v>0.493523421505696</v>
+        <v>1.777048</v>
       </c>
       <c r="O3">
-        <v>0.03651599238506854</v>
+        <v>0.0400338284597913</v>
       </c>
       <c r="P3">
-        <v>0.03651599238506854</v>
+        <v>0.04003382845979131</v>
       </c>
       <c r="Q3">
-        <v>42.5042721812028</v>
+        <v>55.28144263613688</v>
       </c>
       <c r="R3">
-        <v>42.5042721812028</v>
+        <v>497.532983725232</v>
       </c>
       <c r="S3">
-        <v>0.008250859058637094</v>
+        <v>0.009319729902127556</v>
       </c>
       <c r="T3">
-        <v>0.008250859058637094</v>
+        <v>0.009319729902127559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H4">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I4">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J4">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.11335741785615</v>
+        <v>2.456299666666667</v>
       </c>
       <c r="N4">
-        <v>2.11335741785615</v>
+        <v>7.368899</v>
       </c>
       <c r="O4">
-        <v>0.1563681479227883</v>
+        <v>0.1660085931857371</v>
       </c>
       <c r="P4">
-        <v>0.1563681479227883</v>
+        <v>0.1660085931857371</v>
       </c>
       <c r="Q4">
-        <v>182.0110555861126</v>
+        <v>229.2359955161518</v>
       </c>
       <c r="R4">
-        <v>182.0110555861126</v>
+        <v>2063.123959645366</v>
       </c>
       <c r="S4">
-        <v>0.0353316852563097</v>
+        <v>0.03864619771444432</v>
       </c>
       <c r="T4">
-        <v>0.0353316852563097</v>
+        <v>0.03864619771444434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H5">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I5">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J5">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.866426719302704</v>
+        <v>1.585696666666667</v>
       </c>
       <c r="N5">
-        <v>0.866426719302704</v>
+        <v>4.75709</v>
       </c>
       <c r="O5">
-        <v>0.06410725429758009</v>
+        <v>0.1071690382183197</v>
       </c>
       <c r="P5">
-        <v>0.06410725429758009</v>
+        <v>0.1071690382183197</v>
       </c>
       <c r="Q5">
-        <v>74.62024191263978</v>
+        <v>147.9863222321178</v>
       </c>
       <c r="R5">
-        <v>74.62024191263978</v>
+        <v>1331.87690008906</v>
       </c>
       <c r="S5">
-        <v>0.01448515801700695</v>
+        <v>0.02494856296516018</v>
       </c>
       <c r="T5">
-        <v>0.01448515801700695</v>
+        <v>0.0249485629651602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H6">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I6">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J6">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.0419603902766</v>
+        <v>10.16187433333333</v>
       </c>
       <c r="N6">
-        <v>10.0419603902766</v>
+        <v>30.485623</v>
       </c>
       <c r="O6">
-        <v>0.743008605394563</v>
+        <v>0.6867885401361519</v>
       </c>
       <c r="P6">
-        <v>0.743008605394563</v>
+        <v>0.686788540136152</v>
       </c>
       <c r="Q6">
-        <v>1648.696803163642</v>
+        <v>1674.572876574949</v>
       </c>
       <c r="R6">
-        <v>1648.696803163642</v>
+        <v>15071.15588917454</v>
       </c>
       <c r="S6">
-        <v>0.3200422982267804</v>
+        <v>0.2823111367376919</v>
       </c>
       <c r="T6">
-        <v>0.3200422982267804</v>
+        <v>0.282311136737692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H7">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I7">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J7">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.493523421505696</v>
+        <v>0.5923493333333333</v>
       </c>
       <c r="N7">
-        <v>0.493523421505696</v>
+        <v>1.777048</v>
       </c>
       <c r="O7">
-        <v>0.03651599238506854</v>
+        <v>0.0400338284597913</v>
       </c>
       <c r="P7">
-        <v>0.03651599238506854</v>
+        <v>0.04003382845979131</v>
       </c>
       <c r="Q7">
-        <v>81.02705604283025</v>
+        <v>97.61310704300712</v>
       </c>
       <c r="R7">
-        <v>81.02705604283025</v>
+        <v>878.517963387064</v>
       </c>
       <c r="S7">
-        <v>0.0157288381858551</v>
+        <v>0.01645629616680105</v>
       </c>
       <c r="T7">
-        <v>0.0157288381858551</v>
+        <v>0.01645629616680105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H8">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I8">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J8">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.11335741785615</v>
+        <v>2.456299666666667</v>
       </c>
       <c r="N8">
-        <v>2.11335741785615</v>
+        <v>7.368899</v>
       </c>
       <c r="O8">
-        <v>0.1563681479227883</v>
+        <v>0.1660085931857371</v>
       </c>
       <c r="P8">
-        <v>0.1563681479227883</v>
+        <v>0.1660085931857371</v>
       </c>
       <c r="Q8">
-        <v>346.9726510906533</v>
+        <v>404.7730432020453</v>
       </c>
       <c r="R8">
-        <v>346.9726510906533</v>
+        <v>3642.957388818407</v>
       </c>
       <c r="S8">
-        <v>0.0673537575033859</v>
+        <v>0.06823945350223747</v>
       </c>
       <c r="T8">
-        <v>0.0673537575033859</v>
+        <v>0.06823945350223748</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H9">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I9">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J9">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.866426719302704</v>
+        <v>1.585696666666667</v>
       </c>
       <c r="N9">
-        <v>0.866426719302704</v>
+        <v>4.75709</v>
       </c>
       <c r="O9">
-        <v>0.06410725429758009</v>
+        <v>0.1071690382183197</v>
       </c>
       <c r="P9">
-        <v>0.06410725429758009</v>
+        <v>0.1071690382183197</v>
       </c>
       <c r="Q9">
-        <v>142.2506071297682</v>
+        <v>261.3065800041522</v>
       </c>
       <c r="R9">
-        <v>142.2506071297682</v>
+        <v>2351.75922003737</v>
       </c>
       <c r="S9">
-        <v>0.02761345272375538</v>
+        <v>0.0440528797939772</v>
       </c>
       <c r="T9">
-        <v>0.02761345272375538</v>
+        <v>0.04405287979397721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H10">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I10">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J10">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.0419603902766</v>
+        <v>10.16187433333333</v>
       </c>
       <c r="N10">
-        <v>10.0419603902766</v>
+        <v>30.485623</v>
       </c>
       <c r="O10">
-        <v>0.743008605394563</v>
+        <v>0.6867885401361519</v>
       </c>
       <c r="P10">
-        <v>0.743008605394563</v>
+        <v>0.686788540136152</v>
       </c>
       <c r="Q10">
-        <v>883.3951391634646</v>
+        <v>973.8715391482048</v>
       </c>
       <c r="R10">
-        <v>883.3951391634646</v>
+        <v>8764.843852333843</v>
       </c>
       <c r="S10">
-        <v>0.1714832042117934</v>
+        <v>0.1641820341768267</v>
       </c>
       <c r="T10">
-        <v>0.1714832042117934</v>
+        <v>0.1641820341768268</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H11">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I11">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J11">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.493523421505696</v>
+        <v>0.5923493333333333</v>
       </c>
       <c r="N11">
-        <v>0.493523421505696</v>
+        <v>1.777048</v>
       </c>
       <c r="O11">
-        <v>0.03651599238506854</v>
+        <v>0.0400338284597913</v>
       </c>
       <c r="P11">
-        <v>0.03651599238506854</v>
+        <v>0.04003382845979131</v>
       </c>
       <c r="Q11">
-        <v>43.41544625525503</v>
+        <v>56.76828290175467</v>
       </c>
       <c r="R11">
-        <v>43.41544625525503</v>
+        <v>510.914546115792</v>
       </c>
       <c r="S11">
-        <v>0.008427734663772474</v>
+        <v>0.00957039177024073</v>
       </c>
       <c r="T11">
-        <v>0.008427734663772474</v>
+        <v>0.009570391770240733</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H12">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I12">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J12">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.11335741785615</v>
+        <v>2.456299666666667</v>
       </c>
       <c r="N12">
-        <v>2.11335741785615</v>
+        <v>7.368899</v>
       </c>
       <c r="O12">
-        <v>0.1563681479227883</v>
+        <v>0.1660085931857371</v>
       </c>
       <c r="P12">
-        <v>0.1563681479227883</v>
+        <v>0.1660085931857371</v>
       </c>
       <c r="Q12">
-        <v>185.9128693692996</v>
+        <v>235.4014878081273</v>
       </c>
       <c r="R12">
-        <v>185.9128693692996</v>
+        <v>2118.613390273146</v>
       </c>
       <c r="S12">
-        <v>0.03608909889842259</v>
+        <v>0.0396856192659597</v>
       </c>
       <c r="T12">
-        <v>0.03608909889842259</v>
+        <v>0.03968561926595971</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H13">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I13">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J13">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.866426719302704</v>
+        <v>1.585696666666667</v>
       </c>
       <c r="N13">
-        <v>0.866426719302704</v>
+        <v>4.75709</v>
       </c>
       <c r="O13">
-        <v>0.06410725429758009</v>
+        <v>0.1071690382183197</v>
       </c>
       <c r="P13">
-        <v>0.06410725429758009</v>
+        <v>0.1071690382183197</v>
       </c>
       <c r="Q13">
-        <v>76.21989357919324</v>
+        <v>151.9665371498733</v>
       </c>
       <c r="R13">
-        <v>76.21989357919324</v>
+        <v>1367.69883434886</v>
       </c>
       <c r="S13">
-        <v>0.01479567975438383</v>
+        <v>0.0256195752654371</v>
       </c>
       <c r="T13">
-        <v>0.01479567975438383</v>
+        <v>0.02561957526543711</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H14">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I14">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J14">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.0419603902766</v>
+        <v>10.16187433333333</v>
       </c>
       <c r="N14">
-        <v>10.0419603902766</v>
+        <v>30.485623</v>
       </c>
       <c r="O14">
-        <v>0.743008605394563</v>
+        <v>0.6867885401361519</v>
       </c>
       <c r="P14">
-        <v>0.743008605394563</v>
+        <v>0.686788540136152</v>
       </c>
       <c r="Q14">
-        <v>430.659305135624</v>
+        <v>476.9852588396109</v>
       </c>
       <c r="R14">
-        <v>430.659305135624</v>
+        <v>4292.867329556498</v>
       </c>
       <c r="S14">
-        <v>0.08359887245725019</v>
+        <v>0.08041349081537319</v>
       </c>
       <c r="T14">
-        <v>0.08359887245725019</v>
+        <v>0.08041349081537323</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H15">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I15">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J15">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.493523421505696</v>
+        <v>0.5923493333333333</v>
       </c>
       <c r="N15">
-        <v>0.493523421505696</v>
+        <v>1.777048</v>
       </c>
       <c r="O15">
-        <v>0.03651599238506854</v>
+        <v>0.0400338284597913</v>
       </c>
       <c r="P15">
-        <v>0.03651599238506854</v>
+        <v>0.04003382845979131</v>
       </c>
       <c r="Q15">
-        <v>21.1652352243489</v>
+        <v>27.80411278622755</v>
       </c>
       <c r="R15">
-        <v>21.1652352243489</v>
+        <v>250.237015076048</v>
       </c>
       <c r="S15">
-        <v>0.00410856047680387</v>
+        <v>0.004687410620621967</v>
       </c>
       <c r="T15">
-        <v>0.00410856047680387</v>
+        <v>0.004687410620621968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H16">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I16">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J16">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.11335741785615</v>
+        <v>2.456299666666667</v>
       </c>
       <c r="N16">
-        <v>2.11335741785615</v>
+        <v>7.368899</v>
       </c>
       <c r="O16">
-        <v>0.1563681479227883</v>
+        <v>0.1660085931857371</v>
       </c>
       <c r="P16">
-        <v>0.1563681479227883</v>
+        <v>0.1660085931857371</v>
       </c>
       <c r="Q16">
-        <v>90.63340241397596</v>
+        <v>115.2955344516971</v>
       </c>
       <c r="R16">
-        <v>90.63340241397596</v>
+        <v>1037.659810065274</v>
       </c>
       <c r="S16">
-        <v>0.01759360626467015</v>
+        <v>0.01943732270309558</v>
       </c>
       <c r="T16">
-        <v>0.01759360626467015</v>
+        <v>0.01943732270309559</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H17">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I17">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J17">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.866426719302704</v>
+        <v>1.585696666666667</v>
       </c>
       <c r="N17">
-        <v>0.866426719302704</v>
+        <v>4.75709</v>
       </c>
       <c r="O17">
-        <v>0.06410725429758009</v>
+        <v>0.1071690382183197</v>
       </c>
       <c r="P17">
-        <v>0.06410725429758009</v>
+        <v>0.1071690382183197</v>
       </c>
       <c r="Q17">
-        <v>37.15755832368535</v>
+        <v>74.4305538703711</v>
       </c>
       <c r="R17">
-        <v>37.15755832368535</v>
+        <v>669.8749848333399</v>
       </c>
       <c r="S17">
-        <v>0.007212963802433935</v>
+        <v>0.01254802019374522</v>
       </c>
       <c r="T17">
-        <v>0.007212963802433935</v>
+        <v>0.01254802019374522</v>
       </c>
     </row>
   </sheetData>
